--- a/Micropipette Presentation.xlsx
+++ b/Micropipette Presentation.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fahad\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fahad\Documents\Git Bash\micropipette\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Drift Test" sheetId="1" r:id="rId1"/>
+    <sheet name="200uL" sheetId="2" r:id="rId2"/>
+    <sheet name="20uL" sheetId="3" r:id="rId3"/>
+    <sheet name="50uL" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="8">
   <si>
     <t>Amount Dispensed Experimental (1mL)Pipette (g)</t>
   </si>
@@ -34,6 +36,21 @@
   </si>
   <si>
     <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Percent Error</t>
+  </si>
+  <si>
+    <t>Percent Standard Deviation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commercial </t>
   </si>
 </sst>
 </file>
@@ -267,7 +284,7 @@
           </c:trendline>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$51</c:f>
+              <c:f>'Drift Test'!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -434,11 +451,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1910816032"/>
-        <c:axId val="1910812768"/>
+        <c:axId val="-433017392"/>
+        <c:axId val="-433023920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1910816032"/>
+        <c:axId val="-433017392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -555,12 +572,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1910812768"/>
+        <c:crossAx val="-433023920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1910812768"/>
+        <c:axId val="-433023920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.19000000000000003"/>
@@ -679,7 +696,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1910816032"/>
+        <c:crossAx val="-433017392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -813,7 +830,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$51</c:f>
+              <c:f>'Drift Test'!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -972,7 +989,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$51</c:f>
+              <c:f>'Drift Test'!$B$2:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -1139,11 +1156,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1740735088"/>
-        <c:axId val="1740726384"/>
+        <c:axId val="-433016848"/>
+        <c:axId val="-433023376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1740735088"/>
+        <c:axId val="-433016848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1200,12 +1217,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1740726384"/>
+        <c:crossAx val="-433023376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1740726384"/>
+        <c:axId val="-433023376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1262,7 +1279,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1740735088"/>
+        <c:crossAx val="-433016848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2753,8 +2770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3243,12 +3260,483 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1">
+        <f>0.2*0.99997</f>
+        <v>0.19999400000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.20280000000000001</v>
+      </c>
+      <c r="B2">
+        <v>0.19289999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.2044</v>
+      </c>
+      <c r="B3">
+        <v>0.1928</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.2014</v>
+      </c>
+      <c r="B4">
+        <v>0.19220000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.20039999999999999</v>
+      </c>
+      <c r="B5">
+        <v>0.2072</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="B6">
+        <v>0.19939999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.20519999999999999</v>
+      </c>
+      <c r="B7">
+        <v>0.19239999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.2082</v>
+      </c>
+      <c r="B8">
+        <v>0.2001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.20649999999999999</v>
+      </c>
+      <c r="B9">
+        <v>0.19969999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.20749999999999999</v>
+      </c>
+      <c r="B10">
+        <v>0.19950000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.2072</v>
+      </c>
+      <c r="B11">
+        <v>0.19620000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>AVERAGE(A2:A11)</f>
+        <v>0.20446</v>
+      </c>
+      <c r="B12">
+        <f>AVERAGE(B2:B11)</f>
+        <v>0.19723999999999997</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>STDEV(A2:A11)</f>
+        <v>2.9063914242770344E-3</v>
+      </c>
+      <c r="B13">
+        <f>STDEV(B2:B11)</f>
+        <v>4.849558971929532E-3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>((A12-(C1))/(C1))*100</f>
+        <v>2.2330669920097592</v>
+      </c>
+      <c r="B14">
+        <f>(B12-C1)/(C1)*100</f>
+        <v>-1.3770413112393542</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>A13*100/A12</f>
+        <v>1.4214963436745742</v>
+      </c>
+      <c r="B15">
+        <f>B13*100/B12</f>
+        <v>2.4587096795424519</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1">
+        <f>0.02*0.99997</f>
+        <v>1.9999400000000001E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="B2">
+        <v>1.9199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="B3">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>1.84E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.02</v>
+      </c>
+      <c r="B5">
+        <v>1.8700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="B6">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="B7">
+        <v>1.95E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="B8">
+        <v>1.9599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="B9">
+        <v>1.95E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.02</v>
+      </c>
+      <c r="B10">
+        <v>1.9599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.02</v>
+      </c>
+      <c r="B11">
+        <v>1.9560000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>AVERAGE(A2:A11)</f>
+        <v>1.983E-2</v>
+      </c>
+      <c r="B12">
+        <f>AVERAGE(B2:B11)</f>
+        <v>1.9206000000000001E-2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>STDEV(A2:A11)</f>
+        <v>1.7669811040931473E-4</v>
+      </c>
+      <c r="B13">
+        <f>STDEV(B2:B11)</f>
+        <v>4.2153687066890516E-4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>((A12-(C1))/(C1))*100</f>
+        <v>-0.84702541076232329</v>
+      </c>
+      <c r="B14">
+        <f>(B12-C1)/(C1)*100</f>
+        <v>-3.9671190135704055</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>A13*100/A12</f>
+        <v>0.89106460115640307</v>
+      </c>
+      <c r="B15">
+        <f>B13*100/B12</f>
+        <v>2.1948186539045356</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1">
+        <f>0.05*0.99997</f>
+        <v>4.9998500000000001E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="B2">
+        <v>5.7099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="B3">
+        <v>5.4600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="B4">
+        <v>5.3499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.05</v>
+      </c>
+      <c r="B5">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5.0099999999999999E-2</v>
+      </c>
+      <c r="B6">
+        <v>5.4699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>5.16E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4.99E-2</v>
+      </c>
+      <c r="B8">
+        <v>5.1400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4.99E-2</v>
+      </c>
+      <c r="B9">
+        <v>5.1700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4.99E-2</v>
+      </c>
+      <c r="B10">
+        <v>5.16E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.05</v>
+      </c>
+      <c r="B11">
+        <v>5.1299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>AVERAGE(A2:A11)</f>
+        <v>4.99E-2</v>
+      </c>
+      <c r="B12">
+        <f>AVERAGE(B2:B11)</f>
+        <v>5.3149999999999996E-2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>STDEV(A2:A11)</f>
+        <v>1.4142135623731081E-4</v>
+      </c>
+      <c r="B13">
+        <f>STDEV(B2:B11)</f>
+        <v>1.953486910913689E-3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>((A12-(C1))/(C1))*100</f>
+        <v>-0.19700591017730806</v>
+      </c>
+      <c r="B14">
+        <f>(B12-C1)/(C1)*100</f>
+        <v>6.3031890956728596</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>A13*100/A12</f>
+        <v>0.28340953153769699</v>
+      </c>
+      <c r="B15">
+        <f>B13*100/B12</f>
+        <v>3.6754222218507793</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Micropipette Presentation.xlsx
+++ b/Micropipette Presentation.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Drift Test" sheetId="1" r:id="rId1"/>
     <sheet name="200uL" sheetId="2" r:id="rId2"/>
-    <sheet name="20uL" sheetId="3" r:id="rId3"/>
-    <sheet name="50uL" sheetId="4" r:id="rId4"/>
+    <sheet name="50uL" sheetId="4" r:id="rId3"/>
+    <sheet name="20uL" sheetId="3" r:id="rId4"/>
+    <sheet name="Percent Error" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>Amount Dispensed Experimental (1mL)Pipette (g)</t>
   </si>
@@ -51,6 +52,21 @@
   </si>
   <si>
     <t xml:space="preserve">Commercial </t>
+  </si>
+  <si>
+    <t>20uL</t>
+  </si>
+  <si>
+    <t>50uL</t>
+  </si>
+  <si>
+    <t>200uL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Commercial</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test </t>
   </si>
 </sst>
 </file>
@@ -86,8 +102,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -154,8 +171,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.22615966754155734"/>
-          <c:y val="2.7777777777777776E-2"/>
+          <c:x val="0.27060411198600182"/>
+          <c:y val="3.7037037037037035E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -248,8 +265,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.18476202974628173"/>
-                  <c:y val="-0.19025298920968212"/>
+                  <c:x val="0.19309536307961506"/>
+                  <c:y val="-0.14858632254301546"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -451,11 +468,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-433017392"/>
-        <c:axId val="-433023920"/>
+        <c:axId val="-785780432"/>
+        <c:axId val="-785771728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-433017392"/>
+        <c:axId val="-785780432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -572,12 +589,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-433023920"/>
+        <c:crossAx val="-785771728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-433023920"/>
+        <c:axId val="-785771728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.19000000000000003"/>
@@ -696,7 +713,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-433017392"/>
+        <c:crossAx val="-785780432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1156,11 +1173,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-433016848"/>
-        <c:axId val="-433023376"/>
+        <c:axId val="-785779888"/>
+        <c:axId val="-785781520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-433016848"/>
+        <c:axId val="-785779888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1217,12 +1234,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-433023376"/>
+        <c:crossAx val="-785781520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-433023376"/>
+        <c:axId val="-785781520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1279,7 +1296,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-433016848"/>
+        <c:crossAx val="-785779888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1291,6 +1308,705 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Percent Error in Amounts Dispensed</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Percent Error'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Commercial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Percent Error'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>20uL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50uL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200uL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Percent Error'!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.4700000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.97E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2329999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Percent Error'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Test </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Percent Error'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>20uL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50uL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200uL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Percent Error'!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.5100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0499999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7770000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-785769008"/>
+        <c:axId val="-785778800"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-785769008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Amount Dispensed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-785778800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-785778800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Percent Error</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-785769008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.67757206566944173"/>
+          <c:y val="0.10818697447372382"/>
+          <c:w val="0.28477945987410602"/>
+          <c:h val="0.11320003073299238"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1408,6 +2124,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2440,20 +3196,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2847975</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2474,16 +3733,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2497,6 +3756,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2768,10 +4062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2789,7 +4083,7 @@
         <v>0.19500000000000001</v>
       </c>
       <c r="B2">
-        <f>_xlfn.NORM.DIST(0.195,B53,B54,FALSE)</f>
+        <f>_xlfn.NORM.DIST(A:A,B53,B54,FALSE)</f>
         <v>426.3712522802428</v>
       </c>
     </row>
@@ -3250,6 +4544,15 @@
       <c r="B54">
         <f>STDEV(A2:A51)</f>
         <v>6.3922465789838256E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55">
+        <f>B54*100/B53</f>
+        <v>0.32687215961422322</v>
       </c>
     </row>
   </sheetData>
@@ -3260,10 +4563,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3364,54 +4667,79 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="B12">
+        <v>0.1943</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>0.1915</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>0.1953</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>0.1961</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>0.19700000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
         <f>AVERAGE(A2:A11)</f>
         <v>0.20446</v>
       </c>
-      <c r="B12">
-        <f>AVERAGE(B2:B11)</f>
-        <v>0.19723999999999997</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B18">
+        <f>AVERAGE(B2:B16)</f>
+        <v>0.19643999999999998</v>
+      </c>
+      <c r="C18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f>STDEV(A2:A11)</f>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>STDEV(A1:A11)</f>
         <v>2.9063914242770344E-3</v>
       </c>
-      <c r="B13">
-        <f>STDEV(B2:B11)</f>
-        <v>4.849558971929532E-3</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B19">
+        <f>STDEV(B2:B16)</f>
+        <v>4.215413892574996E-3</v>
+      </c>
+      <c r="C19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f>((A12-(C1))/(C1))*100</f>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>((A18-(C1))/(C1))*100</f>
         <v>2.2330669920097592</v>
       </c>
-      <c r="B14">
-        <f>(B12-C1)/(C1)*100</f>
-        <v>-1.3770413112393542</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B20">
+        <f>(B18-C1)/(C1)*100</f>
+        <v>-1.7770533115993625</v>
+      </c>
+      <c r="C20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f>A13*100/A12</f>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f>A19*100/A18</f>
         <v>1.4214963436745742</v>
       </c>
-      <c r="B15">
-        <f>B13*100/B12</f>
-        <v>2.4587096795424519</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B21">
+        <f>B19*100/B18</f>
+        <v>2.1459040381668686</v>
+      </c>
+      <c r="C21" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3422,10 +4750,194 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1">
+        <f>0.05*0.99997</f>
+        <v>4.9998500000000001E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="B2">
+        <v>5.7099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="B3">
+        <v>5.4600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="B4">
+        <v>5.3499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.05</v>
+      </c>
+      <c r="B5">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5.0099999999999999E-2</v>
+      </c>
+      <c r="B6">
+        <v>5.4699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>5.16E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4.99E-2</v>
+      </c>
+      <c r="B8">
+        <v>5.1400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4.99E-2</v>
+      </c>
+      <c r="B9">
+        <v>5.1700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4.99E-2</v>
+      </c>
+      <c r="B10">
+        <v>5.16E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.05</v>
+      </c>
+      <c r="B11">
+        <v>5.1299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>5.4399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>5.4600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>5.4399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f>AVERAGE(A2:A11)</f>
+        <v>4.99E-2</v>
+      </c>
+      <c r="B18">
+        <f>AVERAGE(B2:B16)</f>
+        <v>5.3526666666666674E-2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>STDEV(A1:A11)</f>
+        <v>1.4142135623731081E-4</v>
+      </c>
+      <c r="B19">
+        <f>STDEV(B2:B16)</f>
+        <v>1.6666761904489793E-3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>((A18-(C1))/(C1))*100</f>
+        <v>-0.19700591017730806</v>
+      </c>
+      <c r="B20">
+        <f>(B18-C1)/(C1)*100</f>
+        <v>7.0565450296842354</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f>A19*100/A18</f>
+        <v>0.28340953153769699</v>
+      </c>
+      <c r="B21">
+        <f>B19*100/B18</f>
+        <v>3.1137305837258298</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3526,54 +5038,79 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="B12">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>2.01E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>1.9900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>2.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>1.9900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
         <f>AVERAGE(A2:A11)</f>
         <v>1.983E-2</v>
       </c>
-      <c r="B12">
-        <f>AVERAGE(B2:B11)</f>
-        <v>1.9206000000000001E-2</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B18">
+        <f>AVERAGE(B2:B16)</f>
+        <v>1.9497333333333335E-2</v>
+      </c>
+      <c r="C18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f>STDEV(A2:A11)</f>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>STDEV(A1:A11)</f>
         <v>1.7669811040931473E-4</v>
       </c>
-      <c r="B13">
-        <f>STDEV(B2:B11)</f>
-        <v>4.2153687066890516E-4</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B19">
+        <f>STDEV(B2:B16)</f>
+        <v>5.6019724417472169E-4</v>
+      </c>
+      <c r="C19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f>((A12-(C1))/(C1))*100</f>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>((A18-(C1))/(C1))*100</f>
         <v>-0.84702541076232329</v>
       </c>
-      <c r="B14">
-        <f>(B12-C1)/(C1)*100</f>
-        <v>-3.9671190135704055</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B20">
+        <f>(B18-C1)/(C1)*100</f>
+        <v>-2.5104086455926939</v>
+      </c>
+      <c r="C20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f>A13*100/A12</f>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f>A19*100/A18</f>
         <v>0.89106460115640307</v>
       </c>
-      <c r="B15">
-        <f>B13*100/B12</f>
-        <v>2.1948186539045356</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B21">
+        <f>B19*100/B18</f>
+        <v>2.8731992965263027</v>
+      </c>
+      <c r="C21" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3582,161 +5119,62 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
+    <row r="1" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1">
-        <f>0.05*0.99997</f>
-        <v>4.9998500000000001E-2</v>
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>4.9599999999999998E-2</v>
-      </c>
-      <c r="B2">
-        <v>5.7099999999999998E-2</v>
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>8.4700000000000001E-3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.5100000000000001E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>4.9799999999999997E-2</v>
-      </c>
-      <c r="B3">
-        <v>5.4600000000000003E-2</v>
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.97E-3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>7.0499999999999993E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4.9799999999999997E-2</v>
-      </c>
-      <c r="B4">
-        <v>5.3499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0.05</v>
-      </c>
-      <c r="B5">
-        <v>5.3999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5.0099999999999999E-2</v>
-      </c>
-      <c r="B6">
-        <v>5.4699999999999999E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0.05</v>
-      </c>
-      <c r="B7">
-        <v>5.16E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>4.99E-2</v>
-      </c>
-      <c r="B8">
-        <v>5.1400000000000001E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>4.99E-2</v>
-      </c>
-      <c r="B9">
-        <v>5.1700000000000003E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>4.99E-2</v>
-      </c>
-      <c r="B10">
-        <v>5.16E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0.05</v>
-      </c>
-      <c r="B11">
-        <v>5.1299999999999998E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f>AVERAGE(A2:A11)</f>
-        <v>4.99E-2</v>
-      </c>
-      <c r="B12">
-        <f>AVERAGE(B2:B11)</f>
-        <v>5.3149999999999996E-2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f>STDEV(A2:A11)</f>
-        <v>1.4142135623731081E-4</v>
-      </c>
-      <c r="B13">
-        <f>STDEV(B2:B11)</f>
-        <v>1.953486910913689E-3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f>((A12-(C1))/(C1))*100</f>
-        <v>-0.19700591017730806</v>
-      </c>
-      <c r="B14">
-        <f>(B12-C1)/(C1)*100</f>
-        <v>6.3031890956728596</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f>A13*100/A12</f>
-        <v>0.28340953153769699</v>
-      </c>
-      <c r="B15">
-        <f>B13*100/B12</f>
-        <v>3.6754222218507793</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2.2329999999999999E-2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.7770000000000001E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>